--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,18 +449,36 @@
           <t>reason</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>personality_score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>personality_reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73.48999999999999</v>
+        <v>69.77</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has worked on projects related to web design, user experience, optimization, ReactJS, Django, Python, JavaScript, Computer Vision, and Image Processing. They have demonstrated strong technical skills in the domain of frontend engineering. This, coupled with their experience in the field, earns them a score of 73.49.</t>
+The candidate has a moderate score of 69.77 because while they have experience with the required skills for the job, their projects do not demonstrate a strong focus on frontend development. Additionally, the candidate's experience with ReactJS is limited to using it in conjunction with other technologies, rather than solely for frontend development. </t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Based on the applicant's answers, it seems that they have a genuine interest in coming to Japan and working in the field of AI. They express enthusiasm for the work culture and are willing to adapt to a new culture. They also mention their expectations from the company and what they hope to accomplish during the internship. Additionally, the applicant demonstrates strengths in being a hard-worker, good at grasping new concepts, and working well in a team. They are also aware of their weaknesses and are taking steps to address them. The example of a challenge they faced and how they overcame it shows problem-solving skills and adaptability. Overall, the applicant's personality and willingness to go to Japan are evident in their answers, earning them a score of 4.</t>
         </is>
       </c>
     </row>
@@ -469,12 +487,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>83.2</v>
+        <v>89.14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Reasoning: The candidate has demonstrated strong skills in Frontend Development by working on projects that utilize ReactJS, JavaScript, CSS, NextJS, HTML, Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, Docker. This, coupled with the job description, makes the candidate a good fit for the Frontend Engineer Intern position and thus justifies the score of 83.2.</t>
+          <t>The candidate has a high score due to their strong skills in ReactJS, JavaScript, CSS, and Frontend Development, as specified in the job description. Their projects, SHAMIYANA APP and SMART SENSING MIDDLEWARE, demonstrate their proficiency in these skills. Furthermore, their project RAPID showcases their additional skills in NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker, making them a well-rounded candidate for the job.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The applicant shows a strong willingness to come to Japan and work for the company. They express a deep interest in the country's AI and work culture, which aligns with the company's focus. They also mention their willingness to adapt to new cultures and learn a new language while working in Japan. Additionally, the applicant has a clear career plan and expectations from the company, indicating their commitment and seriousness. In terms of personality, the applicant demonstrates strengths such as being a hard-worker, good at grasping new concepts, and working well in a team. They also acknowledge their weaknesses and have a plan to address them. The applicant presents an example of facing a challenge and overcoming it with important lessons learned. They have a unique background in engineering and graphic design, as well as a specialty in data analytics, which sets them apart from others. Overall, their answers display the desired soft skills of communication, teamwork, problem-solving, and adaptability. The only area where they could improve is in time management, as there is no specific mention of it in their answers. Hence, they receive a score of 4.5 out of 5.</t>
         </is>
       </c>
     </row>
@@ -483,12 +508,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>77.34999999999999</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has strong skills in the required technologies for the job (ReactJS, JavaScript, CSS, Frontend Development, NextJS) as demonstrated by their projects that also include other relevant technologies such as Pytorch, Tensorflow, Keras, Django Rest Framework, and Sklearn. This demonstrates the applicant's ability to work on complex projects with various technologies and provides a strong basis to grant the score of 77.35.</t>
+The candidate has a moderate score due to their experience in working on projects that require skills such as ReactJS, JavaScript, CSS, Frontend Development, and NextJS which are all mentioned in the job description. However, their experience in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework, which are not mentioned in the job description, may have led to a lower score.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The applicant has shown strong willingness to come to Japan and work for the company. They are deeply interested in the field of AI and have expressed a desire to be a part of Japan's work culture. They have also expressed a willingness to adapt to new cultures and have shown an interest in learning the Japanese language. Additionally, their career plan aligns with the company's focus on AI/ML and backend development. The applicant has demonstrated good communication skills, teamwork, problem-solving abilities, and time management skills in their answers. Their experience with facing and overcoming challenges also highlights their adaptability and problem-solving skills. However, they have mentioned a preference for not working alone, which may impact their ability to work independently. Overall, the applicant's personality and willingness to go to Japan are strong, making them a suitable candidate for the company.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,12 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>69.77</v>
+        <v>80.27</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has a moderate score of 69.77 because while they have experience with the required skills for the job, their projects do not demonstrate a strong focus on frontend development. Additionally, the candidate's experience with ReactJS is limited to using it in conjunction with other technologies, rather than solely for frontend development. </t>
+          <t>The candidate has a high score because they have experience working with the required technologies (ReactJS, JavaScript, CSS, Frontend Development, NextJS). Their projects showcase their proficiency in these skills, including building user-friendly interfaces, integrating language and computer vision models, and implementing research papers using PyTorch and Python. These experiences align well with the responsibilities of a Frontend Engineer Intern.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -478,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers, it seems that they have a genuine interest in coming to Japan and working in the field of AI. They express enthusiasm for the work culture and are willing to adapt to a new culture. They also mention their expectations from the company and what they hope to accomplish during the internship. Additionally, the applicant demonstrates strengths in being a hard-worker, good at grasping new concepts, and working well in a team. They are also aware of their weaknesses and are taking steps to address them. The example of a challenge they faced and how they overcame it shows problem-solving skills and adaptability. Overall, the applicant's personality and willingness to go to Japan are evident in their answers, earning them a score of 4.</t>
+          <t>The applicant shows a strong willingness to come to Japan, citing the country's leading position in AI and expressing interest in the work culture. Additionally, the applicant's flexibility in working in different countries, as well as the willingness to adapt to new cultures, demonstrates a positive attitude towards international work opportunities. The career plan and expectations from the company are clear and aligned with the company's focus. The applicant also displays strengths in teamwork, adaptability, and problem-solving, which are essential soft skills sought by the company. The applicant's proactive approach to addressing weaknesses and the ability to derive valuable insights from complex data further demonstrate suitability for the role.</t>
         </is>
       </c>
     </row>
@@ -487,19 +486,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>89.14</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a high score due to their strong skills in ReactJS, JavaScript, CSS, and Frontend Development, as specified in the job description. Their projects, SHAMIYANA APP and SMART SENSING MIDDLEWARE, demonstrate their proficiency in these skills. Furthermore, their project RAPID showcases their additional skills in NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker, making them a well-rounded candidate for the job.</t>
+          <t>The applicant has a high score of 74.54 as their projects demonstrate strong skills in ReactJS, JavaScript, CSS, and frontend development, which are essential for the Frontend Engineer Intern position. The projects showcase their experience in building web applications, utilizing frameworks like Flutter and NodeJS, and integrating real-time functionalities. This indicates their ability to contribute efficiently to the team and create visually appealing web designs.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to come to Japan and work for the company. They express a deep interest in the country's AI and work culture, which aligns with the company's focus. They also mention their willingness to adapt to new cultures and learn a new language while working in Japan. Additionally, the applicant has a clear career plan and expectations from the company, indicating their commitment and seriousness. In terms of personality, the applicant demonstrates strengths such as being a hard-worker, good at grasping new concepts, and working well in a team. They also acknowledge their weaknesses and have a plan to address them. The applicant presents an example of facing a challenge and overcoming it with important lessons learned. They have a unique background in engineering and graphic design, as well as a specialty in data analytics, which sets them apart from others. Overall, their answers display the desired soft skills of communication, teamwork, problem-solving, and adaptability. The only area where they could improve is in time management, as there is no specific mention of it in their answers. Hence, they receive a score of 4.5 out of 5.</t>
+          <t>The applicant demonstrates a strong willingness to work in Japan due to his interest in AI, admiration for Japanese work culture, and willingness to learn a new language. The applicant also shows a good level of adaptability and openness to working in different countries. In terms of personality, the applicant displays strengths in teamwork, adapting to challenging situations, and having a unique background in engineering and graphic design. However, areas for improvement include the preference to not work alone and the need to acquire new skills more efficiently. Overall, the applicant's positive attitude, willingness to learn, and alignment with the company's soft skills make him a strong candidate for consideration.</t>
         </is>
       </c>
     </row>
@@ -508,20 +507,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>75.76000000000001</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has a moderate score due to their experience in working on projects that require skills such as ReactJS, JavaScript, CSS, Frontend Development, and NextJS which are all mentioned in the job description. However, their experience in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework, which are not mentioned in the job description, may have led to a lower score.</t>
+          <t>The candidate has a moderate score of 79.07. This is because the candidate has experience in frontend development, specifically with ReactJS and CSS, which aligns with the job description. However, the candidate's projects focus more on computer vision, machine learning, and web development using different frameworks, which may not directly relate to the required skills. This might have resulted in the moderate score.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has shown strong willingness to come to Japan and work for the company. They are deeply interested in the field of AI and have expressed a desire to be a part of Japan's work culture. They have also expressed a willingness to adapt to new cultures and have shown an interest in learning the Japanese language. Additionally, their career plan aligns with the company's focus on AI/ML and backend development. The applicant has demonstrated good communication skills, teamwork, problem-solving abilities, and time management skills in their answers. Their experience with facing and overcoming challenges also highlights their adaptability and problem-solving skills. However, they have mentioned a preference for not working alone, which may impact their ability to work independently. Overall, the applicant's personality and willingness to go to Japan are strong, making them a suitable candidate for the company.</t>
+          <t>The applicant shows a strong willingness to come to Japan, citing the country's leadership in AI and the desire to be part of its work culture. They express openness to working in Japan after graduation and show a genuine interest in learning the language. Their career plan aligns with the company's focus on AI/ML, and they have clear expectations for the company and the internship. In terms of personality, the applicant's strengths in teamwork and adaptability, plus their ability to learn from setbacks and their unique background in both engineering and graphic design, demonstrate a well-rounded and adaptable individual. The only concern is their preference to not work alone, but their willingness to address this by trying to work alone shows potential for improvement.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>80.27</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a high score because they have experience working with the required technologies (ReactJS, JavaScript, CSS, Frontend Development, NextJS). Their projects showcase their proficiency in these skills, including building user-friendly interfaces, integrating language and computer vision models, and implementing research papers using PyTorch and Python. These experiences align well with the responsibilities of a Frontend Engineer Intern.</t>
+          <t>The candidate has a good score of 65.04 which indicates their suitability for the Frontend Engineer Intern position. They have relevant skills in ReactJS, JavaScript, CSS, Frontend Development, and NextJS, which are required for the job. Additionally, their projects demonstrate practical experience in using these skills to develop user-friendly interfaces and integrate with backend frameworks like Django.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to come to Japan, citing the country's leading position in AI and expressing interest in the work culture. Additionally, the applicant's flexibility in working in different countries, as well as the willingness to adapt to new cultures, demonstrates a positive attitude towards international work opportunities. The career plan and expectations from the company are clear and aligned with the company's focus. The applicant also displays strengths in teamwork, adaptability, and problem-solving, which are essential soft skills sought by the company. The applicant's proactive approach to addressing weaknesses and the ability to derive valuable insights from complex data further demonstrate suitability for the role.</t>
+          <t>The applicant shows a strong willingness to come to Japan, expressing a genuine interest in the AI industry and the work culture. Their openness to working in various countries, including Japan, demonstrates adaptability. They have a clear career plan and express a desire to contribute to cutting-edge technologies during the internship. Their experience in problem-solving and teamwork, as well as their unique background in engineering and graphic design, showcase strong soft skills and capabilities that align with the company's requirements. However, the applicant's preference to not work alone could be a potential area for improvement in a cross-cultural work environment.</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>74.54000000000001</v>
+        <v>86.41</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a high score of 74.54 as their projects demonstrate strong skills in ReactJS, JavaScript, CSS, and frontend development, which are essential for the Frontend Engineer Intern position. The projects showcase their experience in building web applications, utilizing frameworks like Flutter and NodeJS, and integrating real-time functionalities. This indicates their ability to contribute efficiently to the team and create visually appealing web designs.</t>
+          <t>The candidate has a score of 86.41 for the Frontend Engineer Intern position. The candidate's project experience in 'SHAMIYANA APP' demonstrates skills in Flutter, Dart, and Firebase, which are not directly relevant to the required skills of ReactJS, JavaScript, CSS, and NextJS. However, the candidate's project experience in 'SMART SENSING MIDDLEWARE' aligns with the required skills, showcasing proficiency in ReactJS, HTML, and CSS. This combination of relevant and non-relevant skills contributes to the candidate's moderate score.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to work in Japan due to his interest in AI, admiration for Japanese work culture, and willingness to learn a new language. The applicant also shows a good level of adaptability and openness to working in different countries. In terms of personality, the applicant displays strengths in teamwork, adapting to challenging situations, and having a unique background in engineering and graphic design. However, areas for improvement include the preference to not work alone and the need to acquire new skills more efficiently. Overall, the applicant's positive attitude, willingness to learn, and alignment with the company's soft skills make him a strong candidate for consideration.</t>
+          <t>The applicant demonstrates a strong interest in Japan due to the country's advancements in AI and the desire to be part of its work culture. Additionally, the willingness to adapt to a new culture and learn a new language in Japan shows open-mindedness and adaptability. The career plan and flexibility in working in different countries after graduation also exhibit a positive and versatile mindset. The applicant's strengths in teamwork, ability to grasp new concepts, and skills in data analytics make them a valuable asset. However, the preference to not work alone and the need to improve on acquiring new skills may require further development. Overall, the applicant's enthusiasm for Japan, combined with their skills and adaptability, make them a promising candidate for the company's requirements.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>79.06999999999999</v>
+        <v>80.77</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a moderate score of 79.07. This is because the candidate has experience in frontend development, specifically with ReactJS and CSS, which aligns with the job description. However, the candidate's projects focus more on computer vision, machine learning, and web development using different frameworks, which may not directly relate to the required skills. This might have resulted in the moderate score.</t>
+          <t>The candidate has a score of 80.77 because they possess the required skills for the Frontend Engineer Intern position, such as ReactJS, JavaScript, CSS, and Frontend Development. Additionally, their projects demonstrate expertise in relevant technologies like Django Rest Framework and ReactJS.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to come to Japan, citing the country's leadership in AI and the desire to be part of its work culture. They express openness to working in Japan after graduation and show a genuine interest in learning the language. Their career plan aligns with the company's focus on AI/ML, and they have clear expectations for the company and the internship. In terms of personality, the applicant's strengths in teamwork and adaptability, plus their ability to learn from setbacks and their unique background in both engineering and graphic design, demonstrate a well-rounded and adaptable individual. The only concern is their preference to not work alone, but their willingness to address this by trying to work alone shows potential for improvement.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan by expressing a genuine interest in the country's AI industry and work culture. They are open to working in Japan after graduation and are willing to adapt to a new culture, which indicates a positive attitude. Furthermore, the applicant's career plan aligns with the company's goals, and their expectations from the company are reasonable. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and communication, as evidenced by their collaborative approach to overcoming project challenges. However, the applicant's preference to not work alone and the time it takes to acquire new skills could be areas for improvement. Overall, the applicant's enthusiasm and suitability for the company's requirements warrant a high score.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a good score of 65.04 which indicates their suitability for the Frontend Engineer Intern position. They have relevant skills in ReactJS, JavaScript, CSS, Frontend Development, and NextJS, which are required for the job. Additionally, their projects demonstrate practical experience in using these skills to develop user-friendly interfaces and integrate with backend frameworks like Django.</t>
+          <t>The candidate has a moderate score of 65.04. The candidate has experience working on projects that involve ReactJS, Django, Python, JavaScript, Computer Vision, Image Processing, Data Analysis, and PyTorch which are common skills required for the job. However, the candidate does not have experience with NextJS, which is a skill mentioned in the job description. This could be a reason for the moderate score.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to come to Japan, expressing a genuine interest in the AI industry and the work culture. Their openness to working in various countries, including Japan, demonstrates adaptability. They have a clear career plan and express a desire to contribute to cutting-edge technologies during the internship. Their experience in problem-solving and teamwork, as well as their unique background in engineering and graphic design, showcase strong soft skills and capabilities that align with the company's requirements. However, the applicant's preference to not work alone could be a potential area for improvement in a cross-cultural work environment.</t>
+          <t>The applicant has demonstrated a strong interest in Japan, specifically in the field of AI, and is open to working in different countries, including Japan. The applicant also expressed a willingness to adapt to new cultures and learn a new language while working in Japan. Additionally, the applicant has exhibited good communication skills, teamwork, problem-solving abilities, and adaptability through the responses provided. However, there seems to be room for improvement in the area of time management based on the responses provided. Overall, the applicant's positive attitude toward working in Japan and the demonstrated soft skills contribute to the score of 4.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a score of 86.41 for the Frontend Engineer Intern position. The candidate's project experience in 'SHAMIYANA APP' demonstrates skills in Flutter, Dart, and Firebase, which are not directly relevant to the required skills of ReactJS, JavaScript, CSS, and NextJS. However, the candidate's project experience in 'SMART SENSING MIDDLEWARE' aligns with the required skills, showcasing proficiency in ReactJS, HTML, and CSS. This combination of relevant and non-relevant skills contributes to the candidate's moderate score.</t>
+          <t>The candidate's score of 86.41 indicates a good fit for the Frontend Engineer Intern position. The candidate has experience in ReactJS, JavaScript, CSS, and Frontend Development, which are the required skills. The projects they have worked on, such as SHAMIYANA APP and SMART SENSING MIDDLEWARE, showcase their proficiency in these skills. The candidate's score reflects their strong alignment with the job description and their ability to contribute effectively to the team.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong interest in Japan due to the country's advancements in AI and the desire to be part of its work culture. Additionally, the willingness to adapt to a new culture and learn a new language in Japan shows open-mindedness and adaptability. The career plan and flexibility in working in different countries after graduation also exhibit a positive and versatile mindset. The applicant's strengths in teamwork, ability to grasp new concepts, and skills in data analytics make them a valuable asset. However, the preference to not work alone and the need to improve on acquiring new skills may require further development. Overall, the applicant's enthusiasm for Japan, combined with their skills and adaptability, make them a promising candidate for the company's requirements.</t>
+          <t>The applicant has demonstrated a strong interest and willingness to work in Japan, particularly in the field of AI. Their commitment to learning a new language and adapting to a new culture shows good adaptability. They also exhibit strong problem-solving skills and an ability to work well in a team. The applicant's dedication to contributing to cutting-edge technologies and their background in both engineering and graphic design give them a unique perspective and potential value to the company. However, the applicant needs to work on improving their skills in working independently, which is essential in a professional environment. Overall, the applicant shows great potential and a strong willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a score of 80.77 because they possess the required skills for the Frontend Engineer Intern position, such as ReactJS, JavaScript, CSS, and Frontend Development. Additionally, their projects demonstrate expertise in relevant technologies like Django Rest Framework and ReactJS.</t>
+          <t>The applicant has a high score of 80.77, indicating their suitability for the Frontend Engineer Intern role. The candidate's projects demonstrate expertise in relevant areas such as frontend development using ReactJS, JavaScript, CSS, and NextJS, which aligns with the required skills for the job. Additionally, their experience in building websites and integrating machine learning models showcases their ability to work in collaborative environments and handle complex tasks. Overall, the candidate's skills and project experience make them a strong fit for the role.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan by expressing a genuine interest in the country's AI industry and work culture. They are open to working in Japan after graduation and are willing to adapt to a new culture, which indicates a positive attitude. Furthermore, the applicant's career plan aligns with the company's goals, and their expectations from the company are reasonable. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and communication, as evidenced by their collaborative approach to overcoming project challenges. However, the applicant's preference to not work alone and the time it takes to acquire new skills could be areas for improvement. Overall, the applicant's enthusiasm and suitability for the company's requirements warrant a high score.</t>
+          <t>The applicant has shown a strong interest in Japan and its work culture, particularly in the field of AI. They have expressed willingness to work in Japan and learn a new language. Their career plan aligns with the company's requirements, and they have demonstrated adaptability and a collaborative mindset. However, their preference to not work alone and their need to improve skills may need to be addressed through training and support.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>65.04000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a moderate score of 65.04. The candidate has experience working on projects that involve ReactJS, Django, Python, JavaScript, Computer Vision, Image Processing, Data Analysis, and PyTorch which are common skills required for the job. However, the candidate does not have experience with NextJS, which is a skill mentioned in the job description. This could be a reason for the moderate score.</t>
+          <t>The candidate has a high score of 72.69 as they possess multiple common skills required for the Frontend Engineer Intern position, including ReactJS, JavaScript, and CSS. Additionally, the candidate has experience in relevant projects utilizing ReactJS and JavaScript. However, they lack the required skill of NextJS, which may slightly impact their suitability for the role. Overall, their skill set aligns well with the job description, resulting in a high score.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a strong interest in Japan, specifically in the field of AI, and is open to working in different countries, including Japan. The applicant also expressed a willingness to adapt to new cultures and learn a new language while working in Japan. Additionally, the applicant has exhibited good communication skills, teamwork, problem-solving abilities, and adaptability through the responses provided. However, there seems to be room for improvement in the area of time management based on the responses provided. Overall, the applicant's positive attitude toward working in Japan and the demonstrated soft skills contribute to the score of 4.</t>
+          <t>The applicant has a strong interest in Japan and willingness to adapt to the culture, as well as a clear career plan. They have demonstrated good communication skills and the ability to work in a team. The applicant's interest in learning a new language and their background in both engineering and graphic design showcases adaptability and problem-solving skills. However, there is room for improvement in their ability to work independently, which is a key skill required for the role in Japan.</t>
         </is>
       </c>
     </row>
@@ -486,19 +486,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>86.41</v>
+        <v>80.77</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate's score of 86.41 indicates a good fit for the Frontend Engineer Intern position. The candidate has experience in ReactJS, JavaScript, CSS, and Frontend Development, which are the required skills. The projects they have worked on, such as SHAMIYANA APP and SMART SENSING MIDDLEWARE, showcase their proficiency in these skills. The candidate's score reflects their strong alignment with the job description and their ability to contribute effectively to the team.</t>
+          <t>The candidate has a high score of 80.77, indicating a good aptness for the Frontend Engineer Intern position. They have the required skills of ReactJS, JavaScript, and CSS, as well as additional relevant skills like Docker, NodeJS, and HTML. The candidate's project experience also aligns with the job description, demonstrating their ability to align web design, optimize web pages, and collaborate with other developers and designers.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a strong interest and willingness to work in Japan, particularly in the field of AI. Their commitment to learning a new language and adapting to a new culture shows good adaptability. They also exhibit strong problem-solving skills and an ability to work well in a team. The applicant's dedication to contributing to cutting-edge technologies and their background in both engineering and graphic design give them a unique perspective and potential value to the company. However, the applicant needs to work on improving their skills in working independently, which is essential in a professional environment. Overall, the applicant shows great potential and a strong willingness to work in Japan.</t>
+          <t>The applicant has a strong interest in AI and is willing to work in Japan to be part of the leading AI industry. They express a willingness to adapt to a new culture and learn a new language, which demonstrates adaptability and openness. The applicant also shows good communication and teamwork skills by highlighting their ability to work well in a team and their experience in addressing challenges through collaboration and problem-solving. However, the applicant needs to work on improving their ability to acquire new skills and work alone, which could impact their time management and adaptability in a new work environment. Overall, the applicant's strong motivation and willingness to learn and contribute in the field of AI make them a promising candidate for the company's goals in Japan.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>80.77</v>
+        <v>75.87</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a high score of 80.77, indicating their suitability for the Frontend Engineer Intern role. The candidate's projects demonstrate expertise in relevant areas such as frontend development using ReactJS, JavaScript, CSS, and NextJS, which aligns with the required skills for the job. Additionally, their experience in building websites and integrating machine learning models showcases their ability to work in collaborative environments and handle complex tasks. Overall, the candidate's skills and project experience make them a strong fit for the role.</t>
+          <t>The candidate has a score of 75.87 as they possess the required skills of ReactJS, JavaScript, and CSS, as well as skills in Python, Pytorch, Tensorflow, and Image Processing, which align with the job description. However, they lack the Frontend Development and NextJS skills which are essential for the position. Their projects demonstrate experience in Computer Vision and Web Development, making them a moderately suitable candidate for the Frontend Engineer Intern role.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong interest in Japan and its work culture, particularly in the field of AI. They have expressed willingness to work in Japan and learn a new language. Their career plan aligns with the company's requirements, and they have demonstrated adaptability and a collaborative mindset. However, their preference to not work alone and their need to improve skills may need to be addressed through training and support.</t>
+          <t>The applicant has shown a strong willingness to work in Japan, expressing interest in the country's AI advancements and work culture. They also demonstrate adaptability and a willingness to learn a new language. Their career plan aligns with the company's focus on AI/ML, and they have highlighted their strengths in teamwork and problem-solving. However, the applicant's preference to not work alone and the time it takes to acquire new skills are areas to consider for further development.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>tech_reason</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 72.69 as they possess multiple common skills required for the Frontend Engineer Intern position, including ReactJS, JavaScript, and CSS. Additionally, the candidate has experience in relevant projects utilizing ReactJS and JavaScript. However, they lack the required skill of NextJS, which may slightly impact their suitability for the role. Overall, their skill set aligns well with the job description, resulting in a high score.</t>
+          <t>The candidate lacks proficiency in CSS and NextJS which are essential for the job. However, the candidate has strong skills in ReactJS, JavaScript, and Frontend Development which are key requirements for the position.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has a strong interest in Japan and willingness to adapt to the culture, as well as a clear career plan. They have demonstrated good communication skills and the ability to work in a team. The applicant's interest in learning a new language and their background in both engineering and graphic design showcases adaptability and problem-solving skills. However, there is room for improvement in their ability to work independently, which is a key skill required for the role in Japan.</t>
+          <t>The candidate has a strong interest in AI and Japanese work culture. They have expressed a willingness to adapt to new cultures and have highlighted their strengths in teamwork and problem-solving. These traits align well with the company's soft skill requirements.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 80.77, indicating a good aptness for the Frontend Engineer Intern position. They have the required skills of ReactJS, JavaScript, and CSS, as well as additional relevant skills like Docker, NodeJS, and HTML. The candidate's project experience also aligns with the job description, demonstrating their ability to align web design, optimize web pages, and collaborate with other developers and designers.</t>
+          <t>The candidate has experience in relevant technologies like ReactJS and has worked on projects involving frontend development. However, the candidate lacks experience with NextJS, which is mentioned as a required skill. Due to this, the score is moderate rather than high.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has a strong interest in AI and is willing to work in Japan to be part of the leading AI industry. They express a willingness to adapt to a new culture and learn a new language, which demonstrates adaptability and openness. The applicant also shows good communication and teamwork skills by highlighting their ability to work well in a team and their experience in addressing challenges through collaboration and problem-solving. However, the applicant needs to work on improving their ability to acquire new skills and work alone, which could impact their time management and adaptability in a new work environment. Overall, the applicant's strong motivation and willingness to learn and contribute in the field of AI make them a promising candidate for the company's goals in Japan.</t>
+          <t>The applicant shows strong communication skills and a willingness to adapt to new cultures. They have also demonstrated an ability to work well in a team and handle setbacks effectively. However, the candidate should work on improving time management skills and the ability to acquire new skills more quickly.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a score of 75.87 as they possess the required skills of ReactJS, JavaScript, and CSS, as well as skills in Python, Pytorch, Tensorflow, and Image Processing, which align with the job description. However, they lack the Frontend Development and NextJS skills which are essential for the position. Their projects demonstrate experience in Computer Vision and Web Development, making them a moderately suitable candidate for the Frontend Engineer Intern role.</t>
+          <t>The candidate lacks the required skills of ReactJS and NextJS which are essential for the job. Although the candidate has experience in Django Rest Framework and ReactJS, the absence of NextJS and the primary lack of ReactJS skills impacts the overall aptness for the job.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong willingness to work in Japan, expressing interest in the country's AI advancements and work culture. They also demonstrate adaptability and a willingness to learn a new language. Their career plan aligns with the company's focus on AI/ML, and they have highlighted their strengths in teamwork and problem-solving. However, the applicant's preference to not work alone and the time it takes to acquire new skills are areas to consider for further development.</t>
+          <t>The candidate has shown strong interest in AI and Japan's work culture. They have displayed adaptability, teamwork, and problem-solving skills in their responses, aligning with the soft skills the company is looking for. Their long-term career plan also indicates commitment.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate lacks proficiency in CSS and NextJS which are essential for the job. However, the candidate has strong skills in ReactJS, JavaScript, and Frontend Development which are key requirements for the position.</t>
+          <t>The candidate has expertise in JavaScript, ReactJS, and Python, which are common required skills. However, the candidate lacks experience in CSS and NextJS, which are required for the job. The candidate's projects demonstrate strong technical skills, especially in AI, but lack specific frontend development experience.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The candidate has a strong interest in AI and Japanese work culture. They have expressed a willingness to adapt to new cultures and have highlighted their strengths in teamwork and problem-solving. These traits align well with the company's soft skill requirements.</t>
+          <t>The candidate shows a high interest in AI and demonstrates good teamwork and problem-solving skills. The willingness to learn a new language and adapt to a new culture shows adaptability. However, the lack of experience in working alone and the preference for a stable job after graduation might impact long-term commitment.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has experience in relevant technologies like ReactJS and has worked on projects involving frontend development. However, the candidate lacks experience with NextJS, which is mentioned as a required skill. Due to this, the score is moderate rather than high.</t>
+          <t>The candidate has experience with required skills ReactJS, JavaScript, and CSS, along with additional skills like NodeJS, ExpressJS, and Firebase. The candidate lacks experience with NextJS, but the overall experience and project work demonstrate a good fit for the role.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant shows strong communication skills and a willingness to adapt to new cultures. They have also demonstrated an ability to work well in a team and handle setbacks effectively. However, the candidate should work on improving time management skills and the ability to acquire new skills more quickly.</t>
+          <t>The applicant demonstrates strong communication, teamwork, adaptability, and problem-solving skills. Their willingness to adapt to Japanese work culture and learn the language shows a positive attitude towards working in Japan. Overall, the candidate's responses align with the company's soft skill requirements and willingness to relocate, warranting a high personality score.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate lacks the required skills of ReactJS and NextJS which are essential for the job. Although the candidate has experience in Django Rest Framework and ReactJS, the absence of NextJS and the primary lack of ReactJS skills impacts the overall aptness for the job.</t>
+          <t>The candidate lacks the required skills of Frontend Development, CSS, and NextJS which are crucial for the job role. The candidate also lacks experience in collaborating with UX and graphic designers, as mentioned in the job description.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The candidate has shown strong interest in AI and Japan's work culture. They have displayed adaptability, teamwork, and problem-solving skills in their responses, aligning with the soft skills the company is looking for. Their long-term career plan also indicates commitment.</t>
+          <t>The applicant shows strong interest in AI and Japanese work culture and is open to adapting to a new environment. He also demonstrates good teamwork and problem-solving skills, which are essential for the internship.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has expertise in JavaScript, ReactJS, and Python, which are common required skills. However, the candidate lacks experience in CSS and NextJS, which are required for the job. The candidate's projects demonstrate strong technical skills, especially in AI, but lack specific frontend development experience.</t>
+          <t>The applicant has a score of 72.69 as he possesses skills such as ReactJS, JavaScript, and a strong focus on frontend development, which align well with the job description. However, the lack of experience with NextJS and CSS may have led to a slightly lower score.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The candidate shows a high interest in AI and demonstrates good teamwork and problem-solving skills. The willingness to learn a new language and adapt to a new culture shows adaptability. However, the lack of experience in working alone and the preference for a stable job after graduation might impact long-term commitment.</t>
+          <t>The applicant demonstrates good communication, teamwork, problem-solving skills, and a willingness to adapt to a new culture in Japan. The candidate's eagerness to contribute to cutting-edge AI/ML technologies and learn new skills aligns with the company's values, earning a score of 4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has experience with required skills ReactJS, JavaScript, and CSS, along with additional skills like NodeJS, ExpressJS, and Firebase. The candidate lacks experience with NextJS, but the overall experience and project work demonstrate a good fit for the role.</t>
+          <t>The applicant has a good score due to possessing skills like CSS, NodeJS, HTML, Socket.IO, WebRTC, ExpressJS, and ReactJS, which are relevant to frontend development. However, the lack of experience with NextJS and JavaScript, as required by the company, might have slightly impacted the score.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates strong communication, teamwork, adaptability, and problem-solving skills. Their willingness to adapt to Japanese work culture and learn the language shows a positive attitude towards working in Japan. Overall, the candidate's responses align with the company's soft skill requirements and willingness to relocate, warranting a high personality score.</t>
+          <t>The applicant has shown adaptability, teamwork, and willingness to learn and contribute, making him suitable for the company's work culture and potentially working in Japan.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate lacks the required skills of Frontend Development, CSS, and NextJS which are crucial for the job role. The candidate also lacks experience in collaborating with UX and graphic designers, as mentioned in the job description.</t>
+          <t>The applicant has a high score due to their strong projects involving computer vision, machine learning, and web development, aligning well with the required skills for the Frontend Engineer Intern position. Although lacking direct experience with ReactJS, the applicant's proficiency in related technologies and their comprehensive web development project demonstrate their potential to succeed.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant shows strong interest in AI and Japanese work culture and is open to adapting to a new environment. He also demonstrates good teamwork and problem-solving skills, which are essential for the internship.</t>
+          <t>The applicant demonstrates strong adaptability, teamwork, and problem-solving skills, as evidenced by their proactive approach to addressing weaknesses and overcoming challenges. Their willingness and interest in working in Japan, along with their desire to contribute to cutting-edge technologies, reflects a positive attitude and alignment with the company's goals.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a score of 72.69 as he possesses skills such as ReactJS, JavaScript, and a strong focus on frontend development, which align well with the job description. However, the lack of experience with NextJS and CSS may have led to a slightly lower score.</t>
+          <t>The applicant has been involved in several projects that align with the job description, such as developing user-friendly platforms using ReactJS and collaborating with back-end developers. The applicant also has experience in developing and fine-tuning models, which showcases their ability to optimize web pages. Although the applicant does not possess NextJS and CSS skills, their proficiency in ReactJS and JavaScript compensates for this gap. The projects demonstrate the applicant's ability to work with relevant technologies and align with the responsibilities of the Frontend Engineer Intern role.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates good communication, teamwork, problem-solving skills, and a willingness to adapt to a new culture in Japan. The candidate's eagerness to contribute to cutting-edge AI/ML technologies and learn new skills aligns with the company's values, earning a score of 4 out of 5.</t>
+          <t>The applicant has expressed a strong interest in Japan and the AI field, demonstrating enthusiasm and adaptability. Their willingness to learn a new language, work with a team, and contribute to cutting-edge technologies aligns with the soft skills required by the company. The applicant's ability to overcome setbacks through collaborative problem-solving and their background in engineering and graphic design showcase adaptability and teamwork. Overall, the applicant exhibits positive attributes and a willingness to embrace new experiences in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a good score due to possessing skills like CSS, NodeJS, HTML, Socket.IO, WebRTC, ExpressJS, and ReactJS, which are relevant to frontend development. However, the lack of experience with NextJS and JavaScript, as required by the company, might have slightly impacted the score.</t>
+          <t>The applicant has been given a score based on the projects and skills that align well with the job description. The projects 'RAPID' and 'SMART SENSING MIDDLEWARE' demonstrate the applicant's proficiency in frontend development using ReactJS, JavaScript, CSS, and NextJS, which are the required skills for the job. The use of NodeJS, ExpressJS, Socket.IO, WebRTC, and Docker in the 'RAPID' project also showcases strong backend and real-time web application development skills, indicating the potential for collaborating with backend developers as mentioned in the job description. Although the project 'SHAMIYANA APP' primarily utilizes Flutter and Dart, the applicant's overall skills in CSS, Docker, NodeJS, HTML, and JavaScript demonstrate versatility and the ability to adapt to different technologies, reflecting the potential to contribute effectively to frontend engineering. However, the absence of explicit experience with NextJS is a slight gap compared to the required skills for the position, which might have slightly impacted the score.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has shown adaptability, teamwork, and willingness to learn and contribute, making him suitable for the company's work culture and potentially working in Japan.</t>
+          <t>Based on the answers given by the applicant and their demonstrated strengths, the applicant exhibits strong adaptability, teamwork, communication skills, and problem-solving abilities, as evidenced by their willingness to adapt to new cultures, preference for teamwork, and the ability to overcome challenges through collaborative problem-solving. Their clear interest in Japan's work culture and willingness to learn a new language also indicate a high level of adaptability. Hence, the applicant demonstrates a high level of suitability for the company's soft skills requirements and willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a high score due to their strong projects involving computer vision, machine learning, and web development, aligning well with the required skills for the Frontend Engineer Intern position. Although lacking direct experience with ReactJS, the applicant's proficiency in related technologies and their comprehensive web development project demonstrate their potential to succeed.</t>
+          <t>The applicant has a score of 75.87 because of their experience in working on projects that involve frontend development using technologies like ReactJS, Django Rest Framework, and Django Rest Framework. The applicant's projects demonstrate a strong grasp of frontend and backend technologies, along with skills in image processing and machine learning, which are relevant to the job description. However, the applicant lacks direct experience with NextJS, which is a required skill for this position, accounting for the slightly lower score.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant demonstrates strong adaptability, teamwork, and problem-solving skills, as evidenced by their proactive approach to addressing weaknesses and overcoming challenges. Their willingness and interest in working in Japan, along with their desire to contribute to cutting-edge technologies, reflects a positive attitude and alignment with the company's goals.</t>
+          <t>Based on the applicant's answers, it is evident that they possess strong communication skills and emphasize a team-oriented approach. Their willingness to adapt to new cultures, demonstrated by their interest in learning a new language in Japan, showcases their adaptability. The applicant's focus on problem-solving and their ability to learn from setbacks further demonstrates their problem-solving skills. Their willingness to work in Japan and their positive attitude towards embracing a new work culture align with the company's values, earning them a score of 5.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has been involved in several projects that align with the job description, such as developing user-friendly platforms using ReactJS and collaborating with back-end developers. The applicant also has experience in developing and fine-tuning models, which showcases their ability to optimize web pages. Although the applicant does not possess NextJS and CSS skills, their proficiency in ReactJS and JavaScript compensates for this gap. The projects demonstrate the applicant's ability to work with relevant technologies and align with the responsibilities of the Frontend Engineer Intern role.</t>
+          <t>The applicant has a good understanding and experience in ReactJS, JavaScript, and CSS, which are the required skills for the position of a Frontend Engineer Intern. The projects the applicant has worked on demonstrate a solid understanding of frontend development, as well as experience with Python, Data Analysis, and Computer Vision. The applicant has also demonstrated the ability to collaborate with teams and work on complex projects within specified deadlines. However, the applicant lacks experience with NextJS, which is a required skill for the position. This might have contributed to the score given to the applicant.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in Japan and the AI field, demonstrating enthusiasm and adaptability. Their willingness to learn a new language, work with a team, and contribute to cutting-edge technologies aligns with the soft skills required by the company. The applicant's ability to overcome setbacks through collaborative problem-solving and their background in engineering and graphic design showcase adaptability and teamwork. Overall, the applicant exhibits positive attributes and a willingness to embrace new experiences in Japan.</t>
+          <t>The applicant has expressed a strong interest in working in Japan and has demonstrated willingness to adapt to a new culture and language. The applicant has also shown strong communication, teamwork, and problem-solving skills, which are essential for working in a collaborative environment. However, the applicant mentioned a preference for not working alone, which could indicate a reliance on team support. Overall, the applicant's responses suggest a positive attitude and a willingness to embrace the challenges of working in a new environment, leading to a score of 4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has been given a score based on the projects and skills that align well with the job description. The projects 'RAPID' and 'SMART SENSING MIDDLEWARE' demonstrate the applicant's proficiency in frontend development using ReactJS, JavaScript, CSS, and NextJS, which are the required skills for the job. The use of NodeJS, ExpressJS, Socket.IO, WebRTC, and Docker in the 'RAPID' project also showcases strong backend and real-time web application development skills, indicating the potential for collaborating with backend developers as mentioned in the job description. Although the project 'SHAMIYANA APP' primarily utilizes Flutter and Dart, the applicant's overall skills in CSS, Docker, NodeJS, HTML, and JavaScript demonstrate versatility and the ability to adapt to different technologies, reflecting the potential to contribute effectively to frontend engineering. However, the absence of explicit experience with NextJS is a slight gap compared to the required skills for the position, which might have slightly impacted the score.</t>
+          <t>The candidate has been given a score of 80.77 due to their extensive experience with relevant technologies for the Frontend Engineer Intern position. Although the candidate's projects primarily focus on different technologies than the ones listed in the job description, they have demonstrated strong skills in WebRTC, NodeJS, and HTML, which could potentially be beneficial in a collaborative environment with back-end developers and graphic designers. However, the candidate does not have direct experience with NextJS, which is a required skill for this role. Despite this, their overall skill set aligns well with the job description, leading to a moderate to high score for this applicant.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Based on the answers given by the applicant and their demonstrated strengths, the applicant exhibits strong adaptability, teamwork, communication skills, and problem-solving abilities, as evidenced by their willingness to adapt to new cultures, preference for teamwork, and the ability to overcome challenges through collaborative problem-solving. Their clear interest in Japan's work culture and willingness to learn a new language also indicate a high level of adaptability. Hence, the applicant demonstrates a high level of suitability for the company's soft skills requirements and willingness to work in Japan.</t>
+          <t>Based on the applicant's answers, it seems that the candidate possesses strong communication skills, adaptability, and a positive attitude towards working in Japan. Their willingness to learn a new language and immerse themselves in a different work culture reflects an open mindset and adaptability, which are important qualities for working in a new environment. Additionally, the candidate's focus on contributing to cutting-edge technologies and their abilities to work well within a team demonstrate a strong potential for success in a new work setting. These qualities contribute to a score of 4 out of 5 for the applicant's personality and willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a score of 75.87 because of their experience in working on projects that involve frontend development using technologies like ReactJS, Django Rest Framework, and Django Rest Framework. The applicant's projects demonstrate a strong grasp of frontend and backend technologies, along with skills in image processing and machine learning, which are relevant to the job description. However, the applicant lacks direct experience with NextJS, which is a required skill for this position, accounting for the slightly lower score.</t>
+          <t>The applicant has a good amount of experience in projects related to frontend development and has utilized technologies like ReactJS, Django Rest Framework, and ReactJS that are required for the job position. The projects involving website development, machine learning model integration, and data analysis also demonstrate the applicant's abilities in aligning web design requirements, maintaining brand consistency, and collaborating with other developers and designers. Despite not having experience with NextJS, the applicant's overall skill set and project experience demonstrate a strong potential for contributing effectively as a Frontend Engineer Intern.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers, it is evident that they possess strong communication skills and emphasize a team-oriented approach. Their willingness to adapt to new cultures, demonstrated by their interest in learning a new language in Japan, showcases their adaptability. The applicant's focus on problem-solving and their ability to learn from setbacks further demonstrates their problem-solving skills. Their willingness to work in Japan and their positive attitude towards embracing a new work culture align with the company's values, earning them a score of 5.</t>
+          <t>Based on the applicant's answers, it seems that the applicant possesses good communication skills, is adaptable, and is willing to work in Japan. The applicant's enthusiasm for experiencing a new culture and work environment, as well as the desire to be part of Japan's leading AI industry, reflects a positive attitude. Moreover, the applicant's acknowledgment of the need for adaptability and the ability to work well in a team suggests strong interpersonal and teamwork skills. Therefore, I would rate the applicant 4 out of 5 for personality and willingness to work in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a good understanding and experience in ReactJS, JavaScript, and CSS, which are the required skills for the position of a Frontend Engineer Intern. The projects the applicant has worked on demonstrate a solid understanding of frontend development, as well as experience with Python, Data Analysis, and Computer Vision. The applicant has also demonstrated the ability to collaborate with teams and work on complex projects within specified deadlines. However, the applicant lacks experience with NextJS, which is a required skill for the position. This might have contributed to the score given to the applicant.</t>
+          <t>The applicant has extensive experience in working on projects involving ReactJS, Django, Python, JavaScript, Computer Vision, Image Processing, Data Analysis, and PyTorch, which are all relevant skills required for the Frontend Engineer Intern position. The applicant has demonstrated the ability to align web design and user experience requirements, optimize web pages, and maintain brand consistency through projects like 'LLMGuard' and 'Literature Society IITJ Website'. Additionally, the applicant has shown proficiency in collaborating with back-end developers, graphic designers, and UX designers, as mentioned in the job description. However, the applicant lacks direct experience with CSS and NextJS, which are required skills for the position. Despite this, the applicant's diverse technical skills and experience make them a strong candidate for the role.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in working in Japan and has demonstrated willingness to adapt to a new culture and language. The applicant has also shown strong communication, teamwork, and problem-solving skills, which are essential for working in a collaborative environment. However, the applicant mentioned a preference for not working alone, which could indicate a reliance on team support. Overall, the applicant's responses suggest a positive attitude and a willingness to embrace the challenges of working in a new environment, leading to a score of 4 out of 5.</t>
+          <t>The applicant has expressed a strong interest in working in Japan, citing admiration for the country's work culture, a willingness to learn a new language, and a desire to be part of cutting-edge AI/ML technologies. The applicant also demonstrates an adaptable nature and emphasizes the importance of teamwork, problem-solving, and communication. While expressing attachment to their Indian roots, the applicant's openness to adapting to new cultures and their clear expectations from the company showcase a positive and determined attitude towards working in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has been given a score of 80.77 due to their extensive experience with relevant technologies for the Frontend Engineer Intern position. Although the candidate's projects primarily focus on different technologies than the ones listed in the job description, they have demonstrated strong skills in WebRTC, NodeJS, and HTML, which could potentially be beneficial in a collaborative environment with back-end developers and graphic designers. However, the candidate does not have direct experience with NextJS, which is a required skill for this role. Despite this, their overall skill set aligns well with the job description, leading to a moderate to high score for this applicant.</t>
+          <t>The applicant has a diverse set of technical skills including but not limited to Docker, NodeJS, ExpressJS, Firebase, and ReactJS. Although the applicant's projects showcase proficiency in developing web applications using relevant technologies, it is evident that the applicant lacks experience with NextJS, which is a specific requirement mentioned in the job description. Furthermore, while the projects demonstrate skills in CSS, JavaScript, and frontend development, there is no explicit mention of experience with ReactJS, a crucial requirement for the Frontend Engineer Intern position. Thus, while the applicant possesses a strong technical foundation, there are notable gaps in skills directly aligned with the company's requirements.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers, it seems that the candidate possesses strong communication skills, adaptability, and a positive attitude towards working in Japan. Their willingness to learn a new language and immerse themselves in a different work culture reflects an open mindset and adaptability, which are important qualities for working in a new environment. Additionally, the candidate's focus on contributing to cutting-edge technologies and their abilities to work well within a team demonstrate a strong potential for success in a new work setting. These qualities contribute to a score of 4 out of 5 for the applicant's personality and willingness to work in Japan.</t>
+          <t>The applicant has exhibited strong adaptability, communication, and problem-solving skills through the provided answers. The willingness to join a foreign work culture, especially in Japan, reflects open-mindedness and willingness to adapt to new environments. Furthermore, the applicant has expressed an interest in learning a new language while working in Japan, indicating a genuine interest in the culture and professional growth opportunities that Japan offers. The responses also demonstrate a positive attitude towards teamwork and collaboration. However, the applicant's stated preference to not work alone may pose a minor challenge, hence the score of 4 is appropriate.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a good amount of experience in projects related to frontend development and has utilized technologies like ReactJS, Django Rest Framework, and ReactJS that are required for the job position. The projects involving website development, machine learning model integration, and data analysis also demonstrate the applicant's abilities in aligning web design requirements, maintaining brand consistency, and collaborating with other developers and designers. Despite not having experience with NextJS, the applicant's overall skill set and project experience demonstrate a strong potential for contributing effectively as a Frontend Engineer Intern.</t>
+          <t>The applicant has a strong background in Python, PyTorch, Tensorflow, and Django Rest Framework, which are highly relevant to frontend engineering. While the applicant has not directly mentioned NextJS, they have experience in ReactJS, which can be considered transferable. Additionally, the applicant has showcased their expertise in computer vision, image processing, and machine learning, which demonstrates a strong technical foundation. Their projects exhibit proficiency in ReactJS, Django Rest Framework and demonstrating their ability to collaborate with back-end developers, aligning with the requirements of the job description. However, the applicant lacks direct mention of JavaScript and CSS, which are essential for frontend development. Despite this, their strong skills in other areas make them a potential candidate for the role, showcasing the ability to learn and adapt to new technologies, thus justifying a high score.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers, it seems that the applicant possesses good communication skills, is adaptable, and is willing to work in Japan. The applicant's enthusiasm for experiencing a new culture and work environment, as well as the desire to be part of Japan's leading AI industry, reflects a positive attitude. Moreover, the applicant's acknowledgment of the need for adaptability and the ability to work well in a team suggests strong interpersonal and teamwork skills. Therefore, I would rate the applicant 4 out of 5 for personality and willingness to work in Japan.</t>
+          <t>The applicant has shown a willingness to adapt to new cultures and work in Japan, appreciating the work culture and expressing interest in learning a new language. Moreover, they have emphasized their commitment to contributing to cutting-edge AI/ML technologies and learning new skills, demonstrating a proactive and enthusiastic attitude. The applicant's experience in collaborating within a team, their ability to grasp new concepts, and their openness to improvements highlight their strong potential for successful integration into the company's work environment in Japan, hence the score of 4.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>72.69</v>
+        <v>76.03</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has extensive experience in working on projects involving ReactJS, Django, Python, JavaScript, Computer Vision, Image Processing, Data Analysis, and PyTorch, which are all relevant skills required for the Frontend Engineer Intern position. The applicant has demonstrated the ability to align web design and user experience requirements, optimize web pages, and maintain brand consistency through projects like 'LLMGuard' and 'Literature Society IITJ Website'. Additionally, the applicant has shown proficiency in collaborating with back-end developers, graphic designers, and UX designers, as mentioned in the job description. However, the applicant lacks direct experience with CSS and NextJS, which are required skills for the position. Despite this, the applicant's diverse technical skills and experience make them a strong candidate for the role.</t>
+          <t>The applicant has a strong background in front-end development, with experience in ReactJS and JavaScript, which aligns well with the requirements of the company. The candidate has worked on projects involving ReactJS, Django, Python, JavaScript, and various data analysis and computer vision skills, showcasing a diverse skill set. However, the applicant lacks proficiency in CSS and NextJS, which are also required by the company. The projects demonstrate the candidate's capability to work on user-friendly UI development and data analysis pipelines, providing valuable experience relevant to the job role. The applicant's technical skills and project experience make them a suitable candidate for the position, although further proficiency in CSS and NextJS would be beneficial.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in working in Japan, citing admiration for the country's work culture, a willingness to learn a new language, and a desire to be part of cutting-edge AI/ML technologies. The applicant also demonstrates an adaptable nature and emphasizes the importance of teamwork, problem-solving, and communication. While expressing attachment to their Indian roots, the applicant's openness to adapting to new cultures and their clear expectations from the company showcase a positive and determined attitude towards working in Japan.</t>
+          <t>The applicant exhibits strong communication skills, evident from the responses provided during the interview. The applicant also showcases a high level of adaptability and a willingness to learn from Japanese work culture, indicating a positive attitude towards the prospect of working in Japan. Furthermore, the applicant's expressed interest in immersing in Japanese culture and values, along with the desire for mentorship and skill development, demonstrates a strong commitment to personal and professional growth. Overall, the applicant's responses reflect a well-rounded personality and a genuine willingness to embrace the challenges and opportunities of working in Japan.</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>80.77</v>
+        <v>90.81</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a diverse set of technical skills including but not limited to Docker, NodeJS, ExpressJS, Firebase, and ReactJS. Although the applicant's projects showcase proficiency in developing web applications using relevant technologies, it is evident that the applicant lacks experience with NextJS, which is a specific requirement mentioned in the job description. Furthermore, while the projects demonstrate skills in CSS, JavaScript, and frontend development, there is no explicit mention of experience with ReactJS, a crucial requirement for the Frontend Engineer Intern position. Thus, while the applicant possesses a strong technical foundation, there are notable gaps in skills directly aligned with the company's requirements.</t>
+          <t>The candidate possesses strong technical skills in frontend development using ReactJS and has also showcased proficiency in technologies such as Flutter, WebRTC, NodeJS, ExpressJS, and HTML which could be beneficial in creating interactive and real-time user interfaces. The candidate has demonstrated a strong ability to work in a team and has shown adaptability by working with different technology stacks in various projects. However, the candidate lacks direct experience with NextJS, a skill specifically mentioned in the job description, which might indicate a gap in full compliance with the required skills. Nevertheless, the candidate's diverse skill set, particularly in user interface development and real-time communication, aligns well with the company's needs.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has exhibited strong adaptability, communication, and problem-solving skills through the provided answers. The willingness to join a foreign work culture, especially in Japan, reflects open-mindedness and willingness to adapt to new environments. Furthermore, the applicant has expressed an interest in learning a new language while working in Japan, indicating a genuine interest in the culture and professional growth opportunities that Japan offers. The responses also demonstrate a positive attitude towards teamwork and collaboration. However, the applicant's stated preference to not work alone may pose a minor challenge, hence the score of 4 is appropriate.</t>
+          <t>The applicant has shown a strong willingness to work in Japan through their expressed interest in the country's AI advancements, work culture, and learning a new language. They have also demonstrated their adaptability to new cultures and a desire to work in a team environment. However, their preference to work in India or the US as well might indicate some flexibility, albeit the overall positive attitude towards Japan is evident. Additionally, their commitment to continuous learning and improvement, along with their ability to function well within a team, supports a high score for their suitability to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>75.87</v>
+        <v>77.73</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in Python, PyTorch, Tensorflow, and Django Rest Framework, which are highly relevant to frontend engineering. While the applicant has not directly mentioned NextJS, they have experience in ReactJS, which can be considered transferable. Additionally, the applicant has showcased their expertise in computer vision, image processing, and machine learning, which demonstrates a strong technical foundation. Their projects exhibit proficiency in ReactJS, Django Rest Framework and demonstrating their ability to collaborate with back-end developers, aligning with the requirements of the job description. However, the applicant lacks direct mention of JavaScript and CSS, which are essential for frontend development. Despite this, their strong skills in other areas make them a potential candidate for the role, showcasing the ability to learn and adapt to new technologies, thus justifying a high score.</t>
+          <t>The applicant has a strong background in backend development and machine learning, with experience in using Django Rest Framework, PyTorch, Tensorflow, and Keras. While the job description primarily focuses on frontend development, the applicant's experience in ReactJS and Django Rest Framework demonstrates adaptability and the ability to grasp new concepts. The applicant has also showcased skills in image processing and computer vision, which may not directly align with the job requirements but demonstrate a breadth of technical knowledge. Additionally, the applicant has experience in developing a library management system using Django Rest Framework and ReactJS, which showcases proficiency in web development. Despite lacking experience in specific technologies like NextJS, the applicant's diverse technical skills and willingness to learn make them a strong candidate for the position.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has shown a willingness to adapt to new cultures and work in Japan, appreciating the work culture and expressing interest in learning a new language. Moreover, they have emphasized their commitment to contributing to cutting-edge AI/ML technologies and learning new skills, demonstrating a proactive and enthusiastic attitude. The applicant's experience in collaborating within a team, their ability to grasp new concepts, and their openness to improvements highlight their strong potential for successful integration into the company's work environment in Japan, hence the score of 4.</t>
+          <t>The applicant has displayed excellent communication skills, adaptability, and a strong enthusiasm for learning and contributing to cutting-edge technologies. They have shown a willingness to work in Japan and are open to adapting to a new culture. The applicant's collaborative problem-solving approach and ability to work well in a team align with the company's values, making them a suitable candidate for the job and a potential fit for the company's work environment in Japan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The applicant has a good understanding of front-end development, as demonstrated by the projects 'Video Conferencing Project', 'TEDxIITGuwahati Website', and 'Alcheringa Pass Portal'. These projects required the use of JavaScript, HTML, and CSS, which are essential for the role of a Frontend Engineer Intern. The applicant's experience in API integration also showcases their ability to work with different technologies and integrate them into web applications. However, the applicant lacks direct experience with ReactJS and NextJS, which are specifically mentioned in the job description. While they possess the foundational skills required, the absence of experience with these specific technologies may impact their immediate effectiveness in the role.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The applicant's answers demonstrate strong communication skills, adaptability, and a willingness to embrace new challenges and cultures. They have expressed a genuine interest in Japanese work culture and are open to working in Japan after graduation, showcasing their willingness to relocate. Additionally, their acknowledgment of areas for improvement and their proactive steps to address them reflect a growth-oriented mindset. Overall, the applicant exhibits qualities that align with the company's soft skills requirements and a positive attitude towards working in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in front-end development, with experience in ReactJS and JavaScript, which aligns well with the requirements of the company. The candidate has worked on projects involving ReactJS, Django, Python, JavaScript, and various data analysis and computer vision skills, showcasing a diverse skill set. However, the applicant lacks proficiency in CSS and NextJS, which are also required by the company. The projects demonstrate the candidate's capability to work on user-friendly UI development and data analysis pipelines, providing valuable experience relevant to the job role. The applicant's technical skills and project experience make them a suitable candidate for the position, although further proficiency in CSS and NextJS would be beneficial.</t>
+          <t>The candidate has a strong technical background in frontend development, as evidenced by the projects 'LLMGuard', 'Literature Society IITJ Website', and skills in ReactJS, JavaScript, and Django. The applicant has also demonstrated proficiency in computer vision and image processing, as shown by the 'CloudPhysician's Vital Extraction Challenge' project. However, there are some skills required by the company, such as NextJS and CSS, that the applicant does not possess. Despite this, the candidate's experience and skills showcase an ability to work in a team and ensure consistent web design and user experience. The applicant's ability to create user-friendly interfaces and backend systems aligns well with the job description, making the candidate a suitable choice for the position.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant exhibits strong communication skills, evident from the responses provided during the interview. The applicant also showcases a high level of adaptability and a willingness to learn from Japanese work culture, indicating a positive attitude towards the prospect of working in Japan. Furthermore, the applicant's expressed interest in immersing in Japanese culture and values, along with the desire for mentorship and skill development, demonstrates a strong commitment to personal and professional growth. Overall, the applicant's responses reflect a well-rounded personality and a genuine willingness to embrace the challenges and opportunities of working in Japan.</t>
+          <t>The applicant has demonstrated strong communication skills, willingness to learn from Japanese work culture, and adaptability to different cultures. The applicant's proactive approach to skill improvement and seeking feedback, as well as the desire to work in Japan to align with shared values of hard work and dedication, exhibits a strong personality fit for the company's requirements. The applicant also expresses a clear career plan and expectations from the company, demonstrating a high level of motivation and commitment. Overall, the applicant's responses reflect a positive and adaptable personality suitable for working in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate possesses strong technical skills in frontend development using ReactJS and has also showcased proficiency in technologies such as Flutter, WebRTC, NodeJS, ExpressJS, and HTML which could be beneficial in creating interactive and real-time user interfaces. The candidate has demonstrated a strong ability to work in a team and has shown adaptability by working with different technology stacks in various projects. However, the candidate lacks direct experience with NextJS, a skill specifically mentioned in the job description, which might indicate a gap in full compliance with the required skills. Nevertheless, the candidate's diverse skill set, particularly in user interface development and real-time communication, aligns well with the company's needs.</t>
+          <t>The applicant has a strong suit in frontend and backend technologies including ReactJS, NodeJS, and CSS, which are directly in line with the company's requirements. Additionally, the applicant's projects demonstrate proficiency in using various technologies such as Flutter, Dart, Firebase, and WebRTC, showcasing versatility and an ability to adapt to different tech stacks. However, there is a lack of experience or projects related to NextJS, which is a requirement by the company. Despite this, the applicant's wide array of skills and demonstrated project work reflect a high level of technical competence in web development, making them well-suited for the job.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong willingness to work in Japan through their expressed interest in the country's AI advancements, work culture, and learning a new language. They have also demonstrated their adaptability to new cultures and a desire to work in a team environment. However, their preference to work in India or the US as well might indicate some flexibility, albeit the overall positive attitude towards Japan is evident. Additionally, their commitment to continuous learning and improvement, along with their ability to function well within a team, supports a high score for their suitability to work in Japan.</t>
+          <t>The applicant has displayed strong communication skills, adaptability, and a collaborative approach to problem-solving, as evidenced by their responses. Their willingness to work in Japan is evident from their keen interest in the country's work culture, their openness to learning a new language, and their willingness to adapt to a new culture. They also express a desire to work on cutting-edge AI/ML technologies, aligning with the company's focus. Overall, the applicant's responses indicate a good fit for the company's soft skill requirements and a strong willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in backend development and machine learning, with experience in using Django Rest Framework, PyTorch, Tensorflow, and Keras. While the job description primarily focuses on frontend development, the applicant's experience in ReactJS and Django Rest Framework demonstrates adaptability and the ability to grasp new concepts. The applicant has also showcased skills in image processing and computer vision, which may not directly align with the job requirements but demonstrate a breadth of technical knowledge. Additionally, the applicant has experience in developing a library management system using Django Rest Framework and ReactJS, which showcases proficiency in web development. Despite lacking experience in specific technologies like NextJS, the applicant's diverse technical skills and willingness to learn make them a strong candidate for the position.</t>
+          <t>The applicant's projects demonstrate a strong technical background, particularly in Python, PyTorch, and ReactJS, which aligns with the company's requirements for proficiency in ReactJS and frontend development. The 'Multi Model Data Analysis for Annotation of Human Activities' project showcases the applicant's skills in Python, PyTorch, and TensorFlow, which are beneficial for AI and machine learning roles. However, the applicant's lack of experience with JavaScript, CSS, and NextJS could be seen as a gap in the required skills for the frontend engineer intern role. Despite this, the candidate's proficiency in other relevant technologies and their ability to contribute to cutting-edge AI/ML technologies make them a strong contender for the position.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has displayed excellent communication skills, adaptability, and a strong enthusiasm for learning and contributing to cutting-edge technologies. They have shown a willingness to work in Japan and are open to adapting to a new culture. The applicant's collaborative problem-solving approach and ability to work well in a team align with the company's values, making them a suitable candidate for the job and a potential fit for the company's work environment in Japan.</t>
+          <t>The applicant's responses indicate a willingness to adapt to new cultures and work in Japan, as well as an interest in being part of the work culture and learning a new language. The applicant's emphasis on teamwork, problem-solving, and adaptability align with the soft skills required by the company. Furthermore, their openness to working in Japan and their desire to learn new skills demonstrate a positive attitude and enthusiasm for the opportunity. Overall, the applicant's responses reflect a strong potential for success in a new work environment, earning a score of 4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has a good understanding of front-end development, as demonstrated by the projects 'Video Conferencing Project', 'TEDxIITGuwahati Website', and 'Alcheringa Pass Portal'. These projects required the use of JavaScript, HTML, and CSS, which are essential for the role of a Frontend Engineer Intern. The applicant's experience in API integration also showcases their ability to work with different technologies and integrate them into web applications. However, the applicant lacks direct experience with ReactJS and NextJS, which are specifically mentioned in the job description. While they possess the foundational skills required, the absence of experience with these specific technologies may impact their immediate effectiveness in the role.</t>
+          <t>The applicant has demonstrated strong skills in frontend development, particularly in JavaScript, HTML, and CSS through their projects such as the Video Conferencing Project and Alcheringa Pass Portal. They have also shown the ability to work on a team project, which aligns with the requirement for excellent communication skills and teamwork in the job description. However, the applicant lacks experience with ReactJS and NextJS, which are required skills for the position. Therefore, although the applicant possesses relevant skills in frontend development and has demonstrated teamwork, the lack of experience with ReactJS and NextJS is a limiting factor in their suitability for the job.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant's answers demonstrate strong communication skills, adaptability, and a willingness to embrace new challenges and cultures. They have expressed a genuine interest in Japanese work culture and are open to working in Japan after graduation, showcasing their willingness to relocate. Additionally, their acknowledgment of areas for improvement and their proactive steps to address them reflect a growth-oriented mindset. Overall, the applicant exhibits qualities that align with the company's soft skills requirements and a positive attitude towards working in Japan.</t>
+          <t>The applicant has expressed a strong interest in being a part of the work culture in Japan and has shown openness to adapting to a new culture. They have also emphasized their ability to work well in a team, which aligns with the company's requirement for teamwork. Additionally, the applicant has highlighted their interest in learning new skills and contributing to cutting-edge technologies, indicating a proactive and adaptable personality. However, the applicant's preference to not work alone and the need to improve in acquiring new skills may pose some challenges in a new work environment. Overall, the applicant's openness to adapt to a new culture, willingness to learn, and interest in collaborative work make them a suitable candidate for the role in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_2.xlsx
+++ b/main/results/jdk_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a strong technical background in frontend development, as evidenced by the projects 'LLMGuard', 'Literature Society IITJ Website', and skills in ReactJS, JavaScript, and Django. The applicant has also demonstrated proficiency in computer vision and image processing, as shown by the 'CloudPhysician's Vital Extraction Challenge' project. However, there are some skills required by the company, such as NextJS and CSS, that the applicant does not possess. Despite this, the candidate's experience and skills showcase an ability to work in a team and ensure consistent web design and user experience. The applicant's ability to create user-friendly interfaces and backend systems aligns well with the job description, making the candidate a suitable choice for the position.</t>
+          <t>The applicant has a strong background in frontend development using ReactJS, as evidenced by the projects 'LLMGuard' and 'Literature Society IITJ Website' which involved developing user-friendly UI using ReactJS. The applicant also has experience in backend development using Django and has worked on projects involving Computer Vision, Image Processing, and data analysis utilizing Python, PyTorch, and Tensorflow. While the applicant does not have explicit experience in NextJS, the skills possessed by the applicant, especially in ReactJS and JavaScript, make them well-equipped to learn and adapt to NextJS. Overall, the applicant's projects and skills align well with the required skills for the Frontend Engineer Intern position, making them a suitable candidate for the role.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong communication skills, willingness to learn from Japanese work culture, and adaptability to different cultures. The applicant's proactive approach to skill improvement and seeking feedback, as well as the desire to work in Japan to align with shared values of hard work and dedication, exhibits a strong personality fit for the company's requirements. The applicant also expresses a clear career plan and expectations from the company, demonstrating a high level of motivation and commitment. Overall, the applicant's responses reflect a positive and adaptable personality suitable for working in Japan.</t>
+          <t>The candidate has demonstrated strong communication skills through their articulate responses, showcasing an ability to express themselves effectively. They have displayed a willingness to learn and improve, evident from their proactive efforts to address their weaknesses and seek feedback. The candidate also exhibits a high level of adaptability, citing their experience in integrating into diverse cultural environments. Their enthusiasm to work in Japan and align with its values, along with their clear expectations from the company, reflects a strong dedication and professional outlook. Overall, the candidate displays the required soft skills and a genuine willingness to work in Japan, making them a suitable fit for the company.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a strong suit in frontend and backend technologies including ReactJS, NodeJS, and CSS, which are directly in line with the company's requirements. Additionally, the applicant's projects demonstrate proficiency in using various technologies such as Flutter, Dart, Firebase, and WebRTC, showcasing versatility and an ability to adapt to different tech stacks. However, there is a lack of experience or projects related to NextJS, which is a requirement by the company. Despite this, the applicant's wide array of skills and demonstrated project work reflect a high level of technical competence in web development, making them well-suited for the job.</t>
+          <t>The applicant's projects demonstrate strong skills in web development, including experience with ReactJS, NodeJS, ExpressJS, and HTML, which are all essential for the frontend engineer intern position. The Shamiyana App showcases proficiency in Flutter, Dart, and Firebase, highlighting the applicant's ability to work with diverse technologies. The RAPID project, utilizing WebSockets, WebRTC, and various web technologies, demonstrates the applicant's capacity to work on complex web applications. Overall, the applicant's projects align well with the job description and exhibit a high level of technical competence.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has displayed strong communication skills, adaptability, and a collaborative approach to problem-solving, as evidenced by their responses. Their willingness to work in Japan is evident from their keen interest in the country's work culture, their openness to learning a new language, and their willingness to adapt to a new culture. They also express a desire to work on cutting-edge AI/ML technologies, aligning with the company's focus. Overall, the applicant's responses indicate a good fit for the company's soft skill requirements and a strong willingness to work in Japan.</t>
+          <t>The applicant has demonstrated excellent adaptability, communication, and teamwork skills, which align with the company's soft skill requirements. Their openness to working in Japan, adaptability to new cultures, and desire to be part of Japan's work culture indicate a strong willingness to embrace new experiences and integrate into a different work environment. The applicant's collaborative problem-solving approach and ability to bridge technical and creative aspects further showcase their suitability for working in a diverse and challenging international setting.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant's projects demonstrate a strong technical background, particularly in Python, PyTorch, and ReactJS, which aligns with the company's requirements for proficiency in ReactJS and frontend development. The 'Multi Model Data Analysis for Annotation of Human Activities' project showcases the applicant's skills in Python, PyTorch, and TensorFlow, which are beneficial for AI and machine learning roles. However, the applicant's lack of experience with JavaScript, CSS, and NextJS could be seen as a gap in the required skills for the frontend engineer intern role. Despite this, the candidate's proficiency in other relevant technologies and their ability to contribute to cutting-edge AI/ML technologies make them a strong contender for the position.</t>
+          <t>The applicant possesses strong technical skills in Python, PyTorch, Tensorflow, Django Rest Framework, and ReactJS, all of which are relevant to the job description. The projects the applicant has worked on demonstrate proficiency in developing web applications, implementing computer vision and image processing techniques, and integrating machine learning models with web interfaces, showcasing a good understanding of frontend and backend development. The applicant's experience with ReactJS aligns with the company's requirement for frontend development. However, the applicant lacks specific experience in NextJS and JavaScript, which are mentioned in the job description as required skills. While the applicant has demonstrated competence in web development and AI-related projects, there is a gap in the required skills related to JavaScript and NextJS. Overall, the applicant's technical skills closely match the job requirements with an opportunity for growth in specific areas.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant's responses indicate a willingness to adapt to new cultures and work in Japan, as well as an interest in being part of the work culture and learning a new language. The applicant's emphasis on teamwork, problem-solving, and adaptability align with the soft skills required by the company. Furthermore, their openness to working in Japan and their desire to learn new skills demonstrate a positive attitude and enthusiasm for the opportunity. Overall, the applicant's responses reflect a strong potential for success in a new work environment, earning a score of 4 out of 5.</t>
+          <t>The applicant has demonstrated a willingness to work in Japan, expressing interest in the work culture, a desire to contribute to cutting-edge AI/ML technologies, and a willingness to adapt to a new culture. The applicant's responses also indicate a strong interest in learning a new language while working in Japan, showcasing adaptability and a willingness to embrace new experiences. Additionally, the applicant's acknowledgment of strengths in teamwork and problem-solving, combined with the lessons learned from prior challenges, indicates a positive attitude towards collaborative problem-solving and adaptability, essential traits for working in a multicultural environment. Therefore, the applicant's responses align with the company's soft skill requirements, showcasing potential for successful integration into the company's culture and a positive attitude towards working in Japan.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong skills in frontend development, particularly in JavaScript, HTML, and CSS through their projects such as the Video Conferencing Project and Alcheringa Pass Portal. They have also shown the ability to work on a team project, which aligns with the requirement for excellent communication skills and teamwork in the job description. However, the applicant lacks experience with ReactJS and NextJS, which are required skills for the position. Therefore, although the applicant possesses relevant skills in frontend development and has demonstrated teamwork, the lack of experience with ReactJS and NextJS is a limiting factor in their suitability for the job.</t>
+          <t>The applicant possesses strong skills in JavaScript, HTML, and CSS which are essential for frontend development. The Video Conferencing Project and the TEDxIITGuwahati Website demonstrate the applicant's capability to work on web design and user experience, indicating a good understanding of frontend development. However, the applicant lacks proficiency in ReactJS and NextJS, which are specifically required by the company. Thus, while the applicant has solid foundational skills in frontend development, there is a gap in the technologies required by the company.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in being a part of the work culture in Japan and has shown openness to adapting to a new culture. They have also emphasized their ability to work well in a team, which aligns with the company's requirement for teamwork. Additionally, the applicant has highlighted their interest in learning new skills and contributing to cutting-edge technologies, indicating a proactive and adaptable personality. However, the applicant's preference to not work alone and the need to improve in acquiring new skills may pose some challenges in a new work environment. Overall, the applicant's openness to adapt to a new culture, willingness to learn, and interest in collaborative work make them a suitable candidate for the role in Japan.</t>
+          <t>The applicant has demonstrated good adaptability and communication skills with a positive attitude towards working in Japan. The applicant's willingness to learn a new language and adapt to a new culture, along with the ability to work well in a team, aligns with the company's soft skill requirements. The applicant has also shown a proactive approach to addressing weaknesses and a collaborative problem-solving attitude, which are valuable traits for working in a professional environment. Overall, the applicant's personality and willingness to work in Japan align well with the company's requirements.</t>
         </is>
       </c>
     </row>
